--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.049140666666666</v>
+        <v>8.542726333333333</v>
       </c>
       <c r="H2">
-        <v>24.147422</v>
+        <v>25.628179</v>
       </c>
       <c r="I2">
-        <v>0.1957158756688463</v>
+        <v>0.2146499313812649</v>
       </c>
       <c r="J2">
-        <v>0.1957158756688463</v>
+        <v>0.2146499313812649</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.477837333333333</v>
+        <v>10.64562733333334</v>
       </c>
       <c r="N2">
-        <v>28.433512</v>
+        <v>31.936882</v>
       </c>
       <c r="O2">
-        <v>0.2264370231667431</v>
+        <v>0.270105821029879</v>
       </c>
       <c r="P2">
-        <v>0.2264370231667431</v>
+        <v>0.2701058210298791</v>
       </c>
       <c r="Q2">
-        <v>76.28844591178489</v>
+        <v>90.94268095531979</v>
       </c>
       <c r="R2">
-        <v>686.596013206064</v>
+        <v>818.484128597878</v>
       </c>
       <c r="S2">
-        <v>0.04431732027292596</v>
+        <v>0.05797819594974375</v>
       </c>
       <c r="T2">
-        <v>0.04431732027292596</v>
+        <v>0.05797819594974376</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.049140666666666</v>
+        <v>8.542726333333333</v>
       </c>
       <c r="H3">
-        <v>24.147422</v>
+        <v>25.628179</v>
       </c>
       <c r="I3">
-        <v>0.1957158756688463</v>
+        <v>0.2146499313812649</v>
       </c>
       <c r="J3">
-        <v>0.1957158756688463</v>
+        <v>0.2146499313812649</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>31.708708</v>
       </c>
       <c r="O3">
-        <v>0.2525198240718027</v>
+        <v>0.2681760419860866</v>
       </c>
       <c r="P3">
-        <v>0.2525198240718027</v>
+        <v>0.2681760419860866</v>
       </c>
       <c r="Q3">
-        <v>85.07595035008622</v>
+        <v>90.2929382758591</v>
       </c>
       <c r="R3">
-        <v>765.683553150776</v>
+        <v>812.6364444827319</v>
       </c>
       <c r="S3">
-        <v>0.04942213849195588</v>
+        <v>0.0575639690104127</v>
       </c>
       <c r="T3">
-        <v>0.04942213849195588</v>
+        <v>0.05756396901041271</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.049140666666666</v>
+        <v>8.542726333333333</v>
       </c>
       <c r="H4">
-        <v>24.147422</v>
+        <v>25.628179</v>
       </c>
       <c r="I4">
-        <v>0.1957158756688463</v>
+        <v>0.2146499313812649</v>
       </c>
       <c r="J4">
-        <v>0.1957158756688463</v>
+        <v>0.2146499313812649</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.776676999999999</v>
+        <v>8.451328333333334</v>
       </c>
       <c r="N4">
-        <v>23.330031</v>
+        <v>25.353985</v>
       </c>
       <c r="O4">
-        <v>0.185794240613957</v>
+        <v>0.2144310435440829</v>
       </c>
       <c r="P4">
-        <v>0.185794240613957</v>
+        <v>0.2144310435440829</v>
       </c>
       <c r="Q4">
-        <v>62.59556709223133</v>
+        <v>72.19738510481278</v>
       </c>
       <c r="R4">
-        <v>563.3601038300819</v>
+        <v>649.776465943315</v>
       </c>
       <c r="S4">
-        <v>0.03636288249598892</v>
+        <v>0.04602760878275042</v>
       </c>
       <c r="T4">
-        <v>0.03636288249598892</v>
+        <v>0.04602760878275042</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.049140666666666</v>
+        <v>8.542726333333333</v>
       </c>
       <c r="H5">
-        <v>24.147422</v>
+        <v>25.628179</v>
       </c>
       <c r="I5">
-        <v>0.1957158756688463</v>
+        <v>0.2146499313812649</v>
       </c>
       <c r="J5">
-        <v>0.1957158756688463</v>
+        <v>0.2146499313812649</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.045662</v>
+        <v>4.945044</v>
       </c>
       <c r="N5">
-        <v>15.136986</v>
+        <v>14.835132</v>
       </c>
       <c r="O5">
-        <v>0.1205469816587084</v>
+        <v>0.1254679623686066</v>
       </c>
       <c r="P5">
-        <v>0.1205469816587084</v>
+        <v>0.1254679623686067</v>
       </c>
       <c r="Q5">
-        <v>40.61324319445467</v>
+        <v>42.244157598292</v>
       </c>
       <c r="R5">
-        <v>365.519188750092</v>
+        <v>380.197418384628</v>
       </c>
       <c r="S5">
-        <v>0.02359295807457047</v>
+        <v>0.02693168951296854</v>
       </c>
       <c r="T5">
-        <v>0.02359295807457047</v>
+        <v>0.02693168951296855</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.049140666666666</v>
+        <v>8.542726333333333</v>
       </c>
       <c r="H6">
-        <v>24.147422</v>
+        <v>25.628179</v>
       </c>
       <c r="I6">
-        <v>0.1957158756688463</v>
+        <v>0.2146499313812649</v>
       </c>
       <c r="J6">
-        <v>0.1957158756688463</v>
+        <v>0.2146499313812649</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.986648666666666</v>
+        <v>4.801233333333333</v>
       </c>
       <c r="N6">
-        <v>26.959946</v>
+        <v>14.4037</v>
       </c>
       <c r="O6">
-        <v>0.2147019304887888</v>
+        <v>0.1218191310713446</v>
       </c>
       <c r="P6">
-        <v>0.2147019304887888</v>
+        <v>0.1218191310713447</v>
       </c>
       <c r="Q6">
-        <v>72.33479923991243</v>
+        <v>41.01562242914444</v>
       </c>
       <c r="R6">
-        <v>651.0131931592119</v>
+        <v>369.1406018622999</v>
       </c>
       <c r="S6">
-        <v>0.04202057633340506</v>
+        <v>0.02614846812538944</v>
       </c>
       <c r="T6">
-        <v>0.04202057633340507</v>
+        <v>0.02614846812538945</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>31.634986</v>
       </c>
       <c r="I7">
-        <v>0.2564028982788181</v>
+        <v>0.2649602054889376</v>
       </c>
       <c r="J7">
-        <v>0.2564028982788181</v>
+        <v>0.2649602054889376</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.477837333333333</v>
+        <v>10.64562733333334</v>
       </c>
       <c r="N7">
-        <v>28.433512</v>
+        <v>31.936882</v>
       </c>
       <c r="O7">
-        <v>0.2264370231667431</v>
+        <v>0.270105821029879</v>
       </c>
       <c r="P7">
-        <v>0.2264370231667431</v>
+        <v>0.2701058210298791</v>
       </c>
       <c r="Q7">
-        <v>99.94375045009244</v>
+        <v>112.2580905504058</v>
       </c>
       <c r="R7">
-        <v>899.493754050832</v>
+        <v>1010.322814953652</v>
       </c>
       <c r="S7">
-        <v>0.0580591090175808</v>
+        <v>0.07156729384383495</v>
       </c>
       <c r="T7">
-        <v>0.05805910901758079</v>
+        <v>0.07156729384383496</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>31.634986</v>
       </c>
       <c r="I8">
-        <v>0.2564028982788181</v>
+        <v>0.2649602054889376</v>
       </c>
       <c r="J8">
-        <v>0.2564028982788181</v>
+        <v>0.2649602054889376</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>31.708708</v>
       </c>
       <c r="O8">
-        <v>0.2525198240718027</v>
+        <v>0.2681760419860866</v>
       </c>
       <c r="P8">
-        <v>0.2525198240718027</v>
+        <v>0.2681760419860866</v>
       </c>
       <c r="Q8">
         <v>111.4560592953431</v>
@@ -948,10 +948,10 @@
         <v>1003.104533658088</v>
       </c>
       <c r="S8">
-        <v>0.06474681476486747</v>
+        <v>0.07105597919184346</v>
       </c>
       <c r="T8">
-        <v>0.06474681476486746</v>
+        <v>0.07105597919184348</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>31.634986</v>
       </c>
       <c r="I9">
-        <v>0.2564028982788181</v>
+        <v>0.2649602054889376</v>
       </c>
       <c r="J9">
-        <v>0.2564028982788181</v>
+        <v>0.2649602054889376</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.776676999999999</v>
+        <v>8.451328333333334</v>
       </c>
       <c r="N9">
-        <v>23.330031</v>
+        <v>25.353985</v>
       </c>
       <c r="O9">
-        <v>0.185794240613957</v>
+        <v>0.2144310435440829</v>
       </c>
       <c r="P9">
-        <v>0.185794240613957</v>
+        <v>0.2144310435440829</v>
       </c>
       <c r="Q9">
-        <v>82.00502267384066</v>
+        <v>89.11921783546778</v>
       </c>
       <c r="R9">
-        <v>738.0452040645658</v>
+        <v>802.07296051921</v>
       </c>
       <c r="S9">
-        <v>0.04763818177693067</v>
+        <v>0.05681569336064753</v>
       </c>
       <c r="T9">
-        <v>0.04763818177693066</v>
+        <v>0.05681569336064755</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>31.634986</v>
       </c>
       <c r="I10">
-        <v>0.2564028982788181</v>
+        <v>0.2649602054889376</v>
       </c>
       <c r="J10">
-        <v>0.2564028982788181</v>
+        <v>0.2649602054889376</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.045662</v>
+        <v>4.945044</v>
       </c>
       <c r="N10">
-        <v>15.136986</v>
+        <v>14.835132</v>
       </c>
       <c r="O10">
-        <v>0.1205469816587084</v>
+        <v>0.1254679623686066</v>
       </c>
       <c r="P10">
-        <v>0.1205469816587084</v>
+        <v>0.1254679623686067</v>
       </c>
       <c r="Q10">
-        <v>53.20648224357733</v>
+        <v>52.145465903128</v>
       </c>
       <c r="R10">
-        <v>478.858340192196</v>
+        <v>469.3091931281519</v>
       </c>
       <c r="S10">
-        <v>0.03090859547605636</v>
+        <v>0.03324401709146431</v>
       </c>
       <c r="T10">
-        <v>0.03090859547605636</v>
+        <v>0.03324401709146432</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>31.634986</v>
       </c>
       <c r="I11">
-        <v>0.2564028982788181</v>
+        <v>0.2649602054889376</v>
       </c>
       <c r="J11">
-        <v>0.2564028982788181</v>
+        <v>0.2649602054889376</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.986648666666666</v>
+        <v>4.801233333333333</v>
       </c>
       <c r="N11">
-        <v>26.959946</v>
+        <v>14.4037</v>
       </c>
       <c r="O11">
-        <v>0.2147019304887888</v>
+        <v>0.1218191310713446</v>
       </c>
       <c r="P11">
-        <v>0.2147019304887888</v>
+        <v>0.1218191310713447</v>
       </c>
       <c r="Q11">
-        <v>94.76416825230621</v>
+        <v>50.62898309424444</v>
       </c>
       <c r="R11">
-        <v>852.8775142707559</v>
+        <v>455.6608478482</v>
       </c>
       <c r="S11">
-        <v>0.05505019724338277</v>
+        <v>0.03227722200114731</v>
       </c>
       <c r="T11">
-        <v>0.05505019724338277</v>
+        <v>0.03227722200114731</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.09243133333333</v>
+        <v>10.06002866666667</v>
       </c>
       <c r="H12">
-        <v>30.277294</v>
+        <v>30.180086</v>
       </c>
       <c r="I12">
-        <v>0.2453987472490068</v>
+        <v>0.2527746270611218</v>
       </c>
       <c r="J12">
-        <v>0.2453987472490068</v>
+        <v>0.2527746270611218</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.477837333333333</v>
+        <v>10.64562733333334</v>
       </c>
       <c r="N12">
-        <v>28.433512</v>
+        <v>31.936882</v>
       </c>
       <c r="O12">
-        <v>0.2264370231667431</v>
+        <v>0.270105821029879</v>
       </c>
       <c r="P12">
-        <v>0.2264370231667431</v>
+        <v>0.2701058210298791</v>
       </c>
       <c r="Q12">
-        <v>95.65442247516978</v>
+        <v>107.0953161479836</v>
       </c>
       <c r="R12">
-        <v>860.889802276528</v>
+        <v>963.8578453318521</v>
       </c>
       <c r="S12">
-        <v>0.05556736181591308</v>
+        <v>0.06827589817786578</v>
       </c>
       <c r="T12">
-        <v>0.05556736181591308</v>
+        <v>0.06827589817786579</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.09243133333333</v>
+        <v>10.06002866666667</v>
       </c>
       <c r="H13">
-        <v>30.277294</v>
+        <v>30.180086</v>
       </c>
       <c r="I13">
-        <v>0.2453987472490068</v>
+        <v>0.2527746270611218</v>
       </c>
       <c r="J13">
-        <v>0.2453987472490068</v>
+        <v>0.2527746270611218</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>31.708708</v>
       </c>
       <c r="O13">
-        <v>0.2525198240718027</v>
+        <v>0.2681760419860866</v>
       </c>
       <c r="P13">
-        <v>0.2525198240718027</v>
+        <v>0.2681760419860866</v>
       </c>
       <c r="Q13">
-        <v>106.6726527195725</v>
+        <v>106.3301704876542</v>
       </c>
       <c r="R13">
-        <v>960.053874476152</v>
+        <v>956.971534388888</v>
       </c>
       <c r="S13">
-        <v>0.06196804848275999</v>
+        <v>0.06778809899976078</v>
       </c>
       <c r="T13">
-        <v>0.06196804848275998</v>
+        <v>0.06778809899976079</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.09243133333333</v>
+        <v>10.06002866666667</v>
       </c>
       <c r="H14">
-        <v>30.277294</v>
+        <v>30.180086</v>
       </c>
       <c r="I14">
-        <v>0.2453987472490068</v>
+        <v>0.2527746270611218</v>
       </c>
       <c r="J14">
-        <v>0.2453987472490068</v>
+        <v>0.2527746270611218</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.776676999999999</v>
+        <v>8.451328333333334</v>
       </c>
       <c r="N14">
-        <v>23.330031</v>
+        <v>25.353985</v>
       </c>
       <c r="O14">
-        <v>0.185794240613957</v>
+        <v>0.2144310435440829</v>
       </c>
       <c r="P14">
-        <v>0.185794240613957</v>
+        <v>0.2144310435440829</v>
       </c>
       <c r="Q14">
-        <v>78.48557862401266</v>
+        <v>85.02060530474556</v>
       </c>
       <c r="R14">
-        <v>706.3702076161139</v>
+        <v>765.18544774271</v>
       </c>
       <c r="S14">
-        <v>0.04559367389274559</v>
+        <v>0.05420272706218272</v>
       </c>
       <c r="T14">
-        <v>0.04559367389274558</v>
+        <v>0.05420272706218273</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.09243133333333</v>
+        <v>10.06002866666667</v>
       </c>
       <c r="H15">
-        <v>30.277294</v>
+        <v>30.180086</v>
       </c>
       <c r="I15">
-        <v>0.2453987472490068</v>
+        <v>0.2527746270611218</v>
       </c>
       <c r="J15">
-        <v>0.2453987472490068</v>
+        <v>0.2527746270611218</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.045662</v>
+        <v>4.945044</v>
       </c>
       <c r="N15">
-        <v>15.136986</v>
+        <v>14.835132</v>
       </c>
       <c r="O15">
-        <v>0.1205469816587084</v>
+        <v>0.1254679623686066</v>
       </c>
       <c r="P15">
-        <v>0.1205469816587084</v>
+        <v>0.1254679623686067</v>
       </c>
       <c r="Q15">
-        <v>50.92299726620934</v>
+        <v>49.747284397928</v>
       </c>
       <c r="R15">
-        <v>458.306975395884</v>
+        <v>447.725559581352</v>
       </c>
       <c r="S15">
-        <v>0.02958207828369604</v>
+        <v>0.03171511739584341</v>
       </c>
       <c r="T15">
-        <v>0.02958207828369604</v>
+        <v>0.03171511739584341</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.09243133333333</v>
+        <v>10.06002866666667</v>
       </c>
       <c r="H16">
-        <v>30.277294</v>
+        <v>30.180086</v>
       </c>
       <c r="I16">
-        <v>0.2453987472490068</v>
+        <v>0.2527746270611218</v>
       </c>
       <c r="J16">
-        <v>0.2453987472490068</v>
+        <v>0.2527746270611218</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.986648666666666</v>
+        <v>4.801233333333333</v>
       </c>
       <c r="N16">
-        <v>26.959946</v>
+        <v>14.4037</v>
       </c>
       <c r="O16">
-        <v>0.2147019304887888</v>
+        <v>0.1218191310713446</v>
       </c>
       <c r="P16">
-        <v>0.2147019304887888</v>
+        <v>0.1218191310713447</v>
       </c>
       <c r="Q16">
-        <v>90.69713458512489</v>
+        <v>48.30054496868888</v>
       </c>
       <c r="R16">
-        <v>816.274211266124</v>
+        <v>434.7049047182</v>
       </c>
       <c r="S16">
-        <v>0.05268758477389211</v>
+        <v>0.03079278542546906</v>
       </c>
       <c r="T16">
-        <v>0.05268758477389211</v>
+        <v>0.03079278542546907</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.473166333333333</v>
+        <v>3.225032333333334</v>
       </c>
       <c r="H17">
-        <v>10.419499</v>
+        <v>9.675097000000001</v>
       </c>
       <c r="I17">
-        <v>0.08445047967504227</v>
+        <v>0.08103419705149875</v>
       </c>
       <c r="J17">
-        <v>0.08445047967504227</v>
+        <v>0.08103419705149875</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.477837333333333</v>
+        <v>10.64562733333334</v>
       </c>
       <c r="N17">
-        <v>28.433512</v>
+        <v>31.936882</v>
       </c>
       <c r="O17">
-        <v>0.2264370231667431</v>
+        <v>0.270105821029879</v>
       </c>
       <c r="P17">
-        <v>0.2264370231667431</v>
+        <v>0.2701058210298791</v>
       </c>
       <c r="Q17">
-        <v>32.91810553894311</v>
+        <v>34.33249235861712</v>
       </c>
       <c r="R17">
-        <v>296.262949850488</v>
+        <v>308.9924312275541</v>
       </c>
       <c r="S17">
-        <v>0.01912271522262011</v>
+        <v>0.02188780832609207</v>
       </c>
       <c r="T17">
-        <v>0.01912271522262011</v>
+        <v>0.02188780832609208</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.473166333333333</v>
+        <v>3.225032333333334</v>
       </c>
       <c r="H18">
-        <v>10.419499</v>
+        <v>9.675097000000001</v>
       </c>
       <c r="I18">
-        <v>0.08445047967504227</v>
+        <v>0.08103419705149875</v>
       </c>
       <c r="J18">
-        <v>0.08445047967504227</v>
+        <v>0.08103419705149875</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>31.708708</v>
       </c>
       <c r="O18">
-        <v>0.2525198240718027</v>
+        <v>0.2681760419860866</v>
       </c>
       <c r="P18">
-        <v>0.2525198240718027</v>
+        <v>0.2681760419860866</v>
       </c>
       <c r="Q18">
-        <v>36.70987236636578</v>
+        <v>34.08720284940845</v>
       </c>
       <c r="R18">
-        <v>330.388851297292</v>
+        <v>306.7848256446761</v>
       </c>
       <c r="S18">
-        <v>0.02132542027032103</v>
+        <v>0.02173143023079154</v>
       </c>
       <c r="T18">
-        <v>0.02132542027032102</v>
+        <v>0.02173143023079155</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.473166333333333</v>
+        <v>3.225032333333334</v>
       </c>
       <c r="H19">
-        <v>10.419499</v>
+        <v>9.675097000000001</v>
       </c>
       <c r="I19">
-        <v>0.08445047967504227</v>
+        <v>0.08103419705149875</v>
       </c>
       <c r="J19">
-        <v>0.08445047967504227</v>
+        <v>0.08103419705149875</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.776676999999999</v>
+        <v>8.451328333333334</v>
       </c>
       <c r="N19">
-        <v>23.330031</v>
+        <v>25.353985</v>
       </c>
       <c r="O19">
-        <v>0.185794240613957</v>
+        <v>0.2144310435440829</v>
       </c>
       <c r="P19">
-        <v>0.185794240613957</v>
+        <v>0.2144310435440829</v>
       </c>
       <c r="Q19">
-        <v>27.00969274160767</v>
+        <v>27.25580713461612</v>
       </c>
       <c r="R19">
-        <v>243.087234674469</v>
+        <v>245.302264211545</v>
       </c>
       <c r="S19">
-        <v>0.01569041274070889</v>
+        <v>0.01737624743650972</v>
       </c>
       <c r="T19">
-        <v>0.01569041274070888</v>
+        <v>0.01737624743650973</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.473166333333333</v>
+        <v>3.225032333333334</v>
       </c>
       <c r="H20">
-        <v>10.419499</v>
+        <v>9.675097000000001</v>
       </c>
       <c r="I20">
-        <v>0.08445047967504227</v>
+        <v>0.08103419705149875</v>
       </c>
       <c r="J20">
-        <v>0.08445047967504227</v>
+        <v>0.08103419705149875</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.045662</v>
+        <v>4.945044</v>
       </c>
       <c r="N20">
-        <v>15.136986</v>
+        <v>14.835132</v>
       </c>
       <c r="O20">
-        <v>0.1205469816587084</v>
+        <v>0.1254679623686066</v>
       </c>
       <c r="P20">
-        <v>0.1205469816587084</v>
+        <v>0.1254679623686067</v>
       </c>
       <c r="Q20">
-        <v>17.52442338777933</v>
+        <v>15.947926789756</v>
       </c>
       <c r="R20">
-        <v>157.719810490014</v>
+        <v>143.531341107804</v>
       </c>
       <c r="S20">
-        <v>0.01018025042445645</v>
+        <v>0.0101671955862277</v>
       </c>
       <c r="T20">
-        <v>0.01018025042445645</v>
+        <v>0.0101671955862277</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.473166333333333</v>
+        <v>3.225032333333334</v>
       </c>
       <c r="H21">
-        <v>10.419499</v>
+        <v>9.675097000000001</v>
       </c>
       <c r="I21">
-        <v>0.08445047967504227</v>
+        <v>0.08103419705149875</v>
       </c>
       <c r="J21">
-        <v>0.08445047967504227</v>
+        <v>0.08103419705149875</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.986648666666666</v>
+        <v>4.801233333333333</v>
       </c>
       <c r="N21">
-        <v>26.959946</v>
+        <v>14.4037</v>
       </c>
       <c r="O21">
-        <v>0.2147019304887888</v>
+        <v>0.1218191310713446</v>
       </c>
       <c r="P21">
-        <v>0.2147019304887888</v>
+        <v>0.1218191310713447</v>
       </c>
       <c r="Q21">
-        <v>31.21212559856155</v>
+        <v>15.48413273987778</v>
       </c>
       <c r="R21">
-        <v>280.909130387054</v>
+        <v>139.3571946589</v>
       </c>
       <c r="S21">
-        <v>0.01813168101693579</v>
+        <v>0.009871515471877696</v>
       </c>
       <c r="T21">
-        <v>0.01813168101693579</v>
+        <v>0.009871515471877699</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.966928333333334</v>
+        <v>7.425629000000001</v>
       </c>
       <c r="H22">
-        <v>26.900785</v>
+        <v>22.276887</v>
       </c>
       <c r="I22">
-        <v>0.2180319991282865</v>
+        <v>0.1865810390171769</v>
       </c>
       <c r="J22">
-        <v>0.2180319991282865</v>
+        <v>0.1865810390171769</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.477837333333333</v>
+        <v>10.64562733333334</v>
       </c>
       <c r="N22">
-        <v>28.433512</v>
+        <v>31.936882</v>
       </c>
       <c r="O22">
-        <v>0.2264370231667431</v>
+        <v>0.270105821029879</v>
       </c>
       <c r="P22">
-        <v>0.2264370231667431</v>
+        <v>0.2701058210298791</v>
       </c>
       <c r="Q22">
-        <v>84.98708812299111</v>
+        <v>79.0504790495927</v>
       </c>
       <c r="R22">
-        <v>764.8837931069199</v>
+        <v>711.4543114463341</v>
       </c>
       <c r="S22">
-        <v>0.04937051683770312</v>
+        <v>0.05039662473234245</v>
       </c>
       <c r="T22">
-        <v>0.04937051683770311</v>
+        <v>0.05039662473234246</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.966928333333334</v>
+        <v>7.425629000000001</v>
       </c>
       <c r="H23">
-        <v>26.900785</v>
+        <v>22.276887</v>
       </c>
       <c r="I23">
-        <v>0.2180319991282865</v>
+        <v>0.1865810390171769</v>
       </c>
       <c r="J23">
-        <v>0.2180319991282865</v>
+        <v>0.1865810390171769</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>31.708708</v>
       </c>
       <c r="O23">
-        <v>0.2525198240718027</v>
+        <v>0.2681760419860866</v>
       </c>
       <c r="P23">
-        <v>0.2525198240718027</v>
+        <v>0.2681760419860866</v>
       </c>
       <c r="Q23">
-        <v>94.77657072619779</v>
+        <v>78.48570055911068</v>
       </c>
       <c r="R23">
-        <v>852.9891365357801</v>
+        <v>706.3713050319961</v>
       </c>
       <c r="S23">
-        <v>0.05505740206189835</v>
+        <v>0.05003656455327808</v>
       </c>
       <c r="T23">
-        <v>0.05505740206189834</v>
+        <v>0.0500365645532781</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.966928333333334</v>
+        <v>7.425629000000001</v>
       </c>
       <c r="H24">
-        <v>26.900785</v>
+        <v>22.276887</v>
       </c>
       <c r="I24">
-        <v>0.2180319991282865</v>
+        <v>0.1865810390171769</v>
       </c>
       <c r="J24">
-        <v>0.2180319991282865</v>
+        <v>0.1865810390171769</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.776676999999999</v>
+        <v>8.451328333333334</v>
       </c>
       <c r="N24">
-        <v>23.330031</v>
+        <v>25.353985</v>
       </c>
       <c r="O24">
-        <v>0.185794240613957</v>
+        <v>0.2144310435440829</v>
       </c>
       <c r="P24">
-        <v>0.185794240613957</v>
+        <v>0.2144310435440829</v>
       </c>
       <c r="Q24">
-        <v>69.73290533048166</v>
+        <v>62.75642876052168</v>
       </c>
       <c r="R24">
-        <v>627.5961479743349</v>
+        <v>564.807858844695</v>
       </c>
       <c r="S24">
-        <v>0.04050908970758292</v>
+        <v>0.04000876690199248</v>
       </c>
       <c r="T24">
-        <v>0.04050908970758291</v>
+        <v>0.04000876690199249</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.966928333333334</v>
+        <v>7.425629000000001</v>
       </c>
       <c r="H25">
-        <v>26.900785</v>
+        <v>22.276887</v>
       </c>
       <c r="I25">
-        <v>0.2180319991282865</v>
+        <v>0.1865810390171769</v>
       </c>
       <c r="J25">
-        <v>0.2180319991282865</v>
+        <v>0.1865810390171769</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.045662</v>
+        <v>4.945044</v>
       </c>
       <c r="N25">
-        <v>15.136986</v>
+        <v>14.835132</v>
       </c>
       <c r="O25">
-        <v>0.1205469816587084</v>
+        <v>0.1254679623686066</v>
       </c>
       <c r="P25">
-        <v>0.1205469816587084</v>
+        <v>0.1254679623686067</v>
       </c>
       <c r="Q25">
-        <v>45.24408954822334</v>
+        <v>36.72006213267601</v>
       </c>
       <c r="R25">
-        <v>407.19680593401</v>
+        <v>330.480559194084</v>
       </c>
       <c r="S25">
-        <v>0.02628309939992908</v>
+        <v>0.02340994278210267</v>
       </c>
       <c r="T25">
-        <v>0.02628309939992908</v>
+        <v>0.02340994278210268</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.966928333333334</v>
+        <v>7.425629000000001</v>
       </c>
       <c r="H26">
-        <v>26.900785</v>
+        <v>22.276887</v>
       </c>
       <c r="I26">
-        <v>0.2180319991282865</v>
+        <v>0.1865810390171769</v>
       </c>
       <c r="J26">
-        <v>0.2180319991282865</v>
+        <v>0.1865810390171769</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.986648666666666</v>
+        <v>4.801233333333333</v>
       </c>
       <c r="N26">
-        <v>26.959946</v>
+        <v>14.4037</v>
       </c>
       <c r="O26">
-        <v>0.2147019304887888</v>
+        <v>0.1218191310713446</v>
       </c>
       <c r="P26">
-        <v>0.2147019304887888</v>
+        <v>0.1218191310713447</v>
       </c>
       <c r="Q26">
-        <v>80.58263455084555</v>
+        <v>35.65217747576667</v>
       </c>
       <c r="R26">
-        <v>725.2437109576099</v>
+        <v>320.8695972819</v>
       </c>
       <c r="S26">
-        <v>0.04681189112117302</v>
+        <v>0.02272914004746114</v>
       </c>
       <c r="T26">
-        <v>0.04681189112117302</v>
+        <v>0.02272914004746115</v>
       </c>
     </row>
   </sheetData>
